--- a/設計書/DB設計書/E-Rモデル図.xlsx
+++ b/設計書/DB設計書/E-Rモデル図.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\資料\卒業研究\バックアップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\DB設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28FCA584-7D58-4FB5-9C8B-3B9D485DF09A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02EF770-32BB-48B1-B644-B3C9855667C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{92B09A8F-5410-464D-8186-AB04D93AF3B1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{92B09A8F-5410-464D-8186-AB04D93AF3B1}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
     <sheet name="E-Rモデル　　エンティティ一覧" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'E-Rモデル　　エンティティ一覧'!$A$1:$F$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'E-Rモデル　　エンティティ一覧'!$A$1:$F$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$34</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$2</definedName>
   </definedNames>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
   <si>
     <t>川口</t>
     <rPh sb="0" eb="2">
@@ -483,6 +483,78 @@
       <t>ズ</t>
     </rPh>
     <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>学生趣味</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュミ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>student_hobby</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>掲示板コメント</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>board_comment</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メッセージ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メッセージ情報を定義</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>学生趣味情報を定義</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュミ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>掲示板コメント情報を定義</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -815,135 +887,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -988,23 +952,11 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1029,24 +981,144 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1075,14 +1147,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>18406</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>36811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1962376</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>36811</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>155511</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1097,8 +1169,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4035753" y="5803648"/>
-          <a:ext cx="1943970" cy="4172857"/>
+          <a:off x="4053302" y="7008582"/>
+          <a:ext cx="1943970" cy="4537242"/>
           <a:chOff x="3418192" y="10059189"/>
           <a:chExt cx="1661809" cy="3186886"/>
         </a:xfrm>
@@ -1448,6 +1520,24 @@
               </a:rPr>
               <a:t>画像パス</a:t>
             </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>    ＊所有ポイント</a:t>
+            </a:r>
             <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
               <a:effectLst/>
             </a:endParaRPr>
@@ -1465,13 +1555,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>20994</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>9916</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>267891</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>342696</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1487,8 +1577,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="396810" y="5776753"/>
-          <a:ext cx="1944550" cy="1188086"/>
+          <a:off x="404640" y="6981687"/>
+          <a:ext cx="1953459" cy="1179447"/>
           <a:chOff x="3418191" y="9859118"/>
           <a:chExt cx="1674293" cy="1435525"/>
         </a:xfrm>
@@ -1536,7 +1626,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-              <a:t>趣味</a:t>
+              <a:t>学生趣味</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -1582,20 +1672,23 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>＃＊学籍番号</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>  </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
               <a:t>＃＊趣味</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-              <a:t>ID  </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-              <a:t>　＊趣味名</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>ID</a:t>
+            </a:r>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
@@ -1613,14 +1706,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>961138</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>151561</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>151562</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2853617</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>171978</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>173184</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1635,10 +1728,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8244199" y="7952990"/>
-          <a:ext cx="1892479" cy="2741845"/>
+          <a:off x="8263638" y="9134166"/>
+          <a:ext cx="1892479" cy="2244122"/>
           <a:chOff x="3418192" y="9746055"/>
-          <a:chExt cx="1653142" cy="3741134"/>
+          <a:chExt cx="1653142" cy="3212510"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1703,7 +1796,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="3418192" y="10430213"/>
-            <a:ext cx="1650755" cy="3056976"/>
+            <a:ext cx="1650755" cy="2528352"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1730,7 +1823,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-              <a:t>＃＊掲示板</a:t>
+              <a:t>＃＊投稿</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
@@ -1790,7 +1883,19 @@
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0"/>
               <a:t>＊カテゴリー</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -1811,7 +1916,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -1844,135 +1949,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>本文</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>    </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>＊</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>投稿日付</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>    </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>＊</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>投稿時刻</a:t>
+              <a:t>投稿日時</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
               <a:solidFill>
@@ -2112,15 +2089,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>262062</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>410920</xdr:rowOff>
+      <xdr:colOff>362858</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>336939</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1855390</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1853164</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>349899</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2131,14 +2108,12 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="3"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1633662" y="4341570"/>
-          <a:ext cx="424928" cy="1830"/>
+        <a:xfrm flipH="1">
+          <a:off x="2436327" y="6531429"/>
+          <a:ext cx="1490306" cy="12960"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2168,13 +2143,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>919426</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>19483</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2892778</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>80636</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2190,8 +2165,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8202487" y="5786320"/>
-          <a:ext cx="1973352" cy="1901357"/>
+          <a:off x="8221926" y="6991254"/>
+          <a:ext cx="1973352" cy="1886778"/>
           <a:chOff x="3418191" y="10011386"/>
           <a:chExt cx="1661811" cy="1794326"/>
         </a:xfrm>
@@ -2411,16 +2386,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>17974</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>187654</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1871139</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>187656</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>292301</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>33071</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1899241</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>181432</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2435,10 +2410,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="393790" y="7989083"/>
-          <a:ext cx="1971980" cy="2178070"/>
+          <a:off x="3961347" y="12689219"/>
+          <a:ext cx="1972790" cy="1845859"/>
           <a:chOff x="3415451" y="10076010"/>
-          <a:chExt cx="1665921" cy="1417484"/>
+          <a:chExt cx="1665921" cy="1261021"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -2503,7 +2478,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="3418191" y="10430213"/>
-            <a:ext cx="1663181" cy="1063281"/>
+            <a:ext cx="1663181" cy="906818"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2549,9 +2524,17 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-              <a:t>　＊学籍番号（受信</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>　＊学籍番号（受信）</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
@@ -2567,78 +2550,6 @@
               </a:rPr>
               <a:t>　</a:t>
             </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>＊</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>メッセージ</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>　</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>＊</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>送信時刻</a:t>
-            </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
           </a:p>
           <a:p>
@@ -2654,13 +2565,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1985635</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>413256</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>796270</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2707,13 +2618,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1987826</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>147247</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>846666</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>156450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2758,16 +2669,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>330730</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152135</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2511137</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>115455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1898385</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2540000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>168470</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2781,9 +2692,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1702330" y="6324335"/>
-          <a:ext cx="354805" cy="6615"/>
+        <a:xfrm>
+          <a:off x="9799205" y="10275455"/>
+          <a:ext cx="28863" cy="1178697"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2811,16 +2722,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>932234</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>387949</xdr:colOff>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2928776</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>129592</xdr:rowOff>
+      <xdr:colOff>1451430</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>129593</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2835,8 +2746,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8215295" y="11883571"/>
-          <a:ext cx="1996542" cy="1295919"/>
+          <a:off x="6764407" y="12686771"/>
+          <a:ext cx="1989523" cy="1240843"/>
           <a:chOff x="3418191" y="9859118"/>
           <a:chExt cx="1674293" cy="1435525"/>
         </a:xfrm>
@@ -2960,15 +2871,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1906011</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>171978</xdr:rowOff>
+      <xdr:colOff>1096818</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1930505</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1101531</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>155511</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2979,15 +2890,802 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8384886" y="10318750"/>
+          <a:ext cx="4713" cy="1122443"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>116633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>274327</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>64798</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="25" name="グループ化 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B3C6649-86F8-4409-82D2-1CFC9A21E0D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="383646" y="9469654"/>
+          <a:ext cx="1980889" cy="1244623"/>
+          <a:chOff x="3415451" y="10076010"/>
+          <a:chExt cx="1665921" cy="851816"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="正方形/長方形 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF8A7554-A8FA-43E0-B8A7-07A553DF36C1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3415451" y="10076010"/>
+            <a:ext cx="1664548" cy="340694"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>趣味</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="正方形/長方形 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5E632E7-6D76-4CD2-ABE0-808A9D30DC93}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3418191" y="10430213"/>
+            <a:ext cx="1663181" cy="497613"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>＃＊趣味</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>ID  </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>　＊趣味名</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>985178</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>342696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>990363</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>116633</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91A825FF-E5EE-4872-B1A7-30992C40A68B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="22" idx="0"/>
-          <a:endCxn id="10" idx="2"/>
+          <a:stCxn id="26" idx="0"/>
+          <a:endCxn id="7" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4115811" y="8630178"/>
-          <a:ext cx="0" cy="1428222"/>
+        <a:xfrm flipV="1">
+          <a:off x="1360994" y="6964839"/>
+          <a:ext cx="5185" cy="1341998"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>103674</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>188031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>378001</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>103675</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="41" name="グループ化 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDA02C5F-7050-4BC0-947E-1C012BAE4151}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="487320" y="12689594"/>
+          <a:ext cx="1980889" cy="2138144"/>
+          <a:chOff x="3415451" y="10076010"/>
+          <a:chExt cx="1665921" cy="1458424"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="正方形/長方形 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28A6AF9B-49A3-4D86-BDCC-0C62353FE85D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3415451" y="10076010"/>
+            <a:ext cx="1664548" cy="340694"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>メッセージ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="正方形/長方形 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23359E42-7B2E-48AB-9325-232C0765D339}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3418191" y="10430212"/>
+            <a:ext cx="1663181" cy="1104222"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>＃＊トーク</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>ID  </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>　＊メッセージ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>ID</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>　＊メッセージ</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>＊送信時刻</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>　＊学籍番号（送信）</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1827245</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3799225</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>38878</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="46" name="グループ化 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39819B09-A959-4AC9-AA9A-5A78AD725308}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9129745" y="12686770"/>
+          <a:ext cx="1971980" cy="1890962"/>
+          <a:chOff x="3415451" y="10076010"/>
+          <a:chExt cx="1665921" cy="1290374"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="正方形/長方形 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F1632B4-8DD3-4248-A2F4-86F0D40E8E72}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3415451" y="10076010"/>
+            <a:ext cx="1664548" cy="340694"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>掲示板コメント</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="48" name="正方形/長方形 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54F04E2-697C-48C4-91F5-513664FF2BB1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3418191" y="10430213"/>
+            <a:ext cx="1663181" cy="936171"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>＃＊投稿</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>ID  </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>＃＊コメント</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>　＊コメント</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>　＊名前</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>933061</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>25919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>946021</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>129592</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直線矢印コネクタ 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD2C7B28-A13C-46F6-9944-529C5A37778D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4950408" y="10548776"/>
+          <a:ext cx="12960" cy="1075612"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466531</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>12960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1762449</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>25918</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直線矢印コネクタ 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D44048E-9988-411A-A221-F12C3AE5FF78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2540000" y="12479695"/>
+          <a:ext cx="1295918" cy="12958"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1282959</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>25919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1295919</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>129592</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線矢印コネクタ 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03FA9A81-8FC7-4B55-B7DB-C1B4A799833E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5300306" y="10548776"/>
+          <a:ext cx="12960" cy="1075612"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1969796</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>323979</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>780431</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>338376</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直線矢印コネクタ 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33B67E84-1D0B-483C-BC4F-FA42E1EB58AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5987143" y="6946122"/>
+          <a:ext cx="2076349" cy="14397"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3318,7 +4016,7 @@
   </sheetPr>
   <dimension ref="A1:FT34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="58" zoomScaleNormal="58" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="58" zoomScaleNormal="58" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F8" sqref="F8:Q9"/>
     </sheetView>
   </sheetViews>
@@ -3520,219 +4218,219 @@
     <col min="16165" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:176" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="55"/>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-    </row>
-    <row r="2" spans="1:176" s="49" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
+    <row r="1" spans="1:176" ht="15.75" customHeight="1">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+    </row>
+    <row r="2" spans="1:176" s="13" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
       <c r="AG2" s="3"/>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="50"/>
-      <c r="AT2" s="50"/>
-      <c r="AU2" s="50"/>
-      <c r="AV2" s="50"/>
-      <c r="AW2" s="50"/>
-      <c r="AX2" s="50"/>
-      <c r="AY2" s="50"/>
-      <c r="AZ2" s="50"/>
-      <c r="BA2" s="50"/>
-      <c r="BB2" s="50"/>
-      <c r="BC2" s="50"/>
-      <c r="BD2" s="50"/>
-      <c r="BE2" s="50"/>
-      <c r="BF2" s="50"/>
-      <c r="BG2" s="50"/>
-      <c r="BH2" s="50"/>
-      <c r="BI2" s="50"/>
-      <c r="BJ2" s="50"/>
-      <c r="BK2" s="50"/>
-      <c r="BL2" s="50"/>
-      <c r="BM2" s="50"/>
-      <c r="BN2" s="50"/>
-      <c r="BO2" s="50"/>
-      <c r="BP2" s="50"/>
-      <c r="BQ2" s="50"/>
-      <c r="BR2" s="50"/>
-      <c r="BS2" s="50"/>
-      <c r="BT2" s="50"/>
-      <c r="BU2" s="50"/>
-      <c r="BV2" s="50"/>
-      <c r="BW2" s="50"/>
-      <c r="BX2" s="50"/>
-      <c r="BY2" s="50"/>
-      <c r="BZ2" s="50"/>
-      <c r="CA2" s="50"/>
-      <c r="CB2" s="50"/>
-      <c r="CC2" s="50"/>
-      <c r="CD2" s="50"/>
-      <c r="CE2" s="50"/>
-      <c r="CF2" s="50"/>
-      <c r="CG2" s="50"/>
-      <c r="CH2" s="50"/>
-      <c r="CI2" s="50"/>
-      <c r="CJ2" s="50"/>
-      <c r="CK2" s="50"/>
-      <c r="CL2" s="50"/>
-      <c r="CM2" s="50"/>
-      <c r="CN2" s="50"/>
-      <c r="CO2" s="50"/>
-      <c r="CP2" s="50"/>
-      <c r="CQ2" s="50"/>
-      <c r="CR2" s="50"/>
-      <c r="CS2" s="50"/>
-      <c r="CT2" s="50"/>
-      <c r="CU2" s="50"/>
-      <c r="CV2" s="50"/>
-      <c r="CW2" s="50"/>
-      <c r="CX2" s="50"/>
-      <c r="CY2" s="50"/>
-      <c r="CZ2" s="50"/>
-      <c r="DA2" s="50"/>
-      <c r="DB2" s="50"/>
-      <c r="DC2" s="50"/>
-      <c r="DD2" s="50"/>
-      <c r="DE2" s="50"/>
-      <c r="DF2" s="50"/>
-      <c r="DG2" s="50"/>
-      <c r="DH2" s="50"/>
-      <c r="DI2" s="50"/>
-      <c r="DJ2" s="50"/>
-      <c r="DK2" s="50"/>
-      <c r="DL2" s="50"/>
-      <c r="DM2" s="50"/>
-      <c r="DN2" s="50"/>
-      <c r="DO2" s="50"/>
-      <c r="DP2" s="50"/>
-      <c r="DQ2" s="50"/>
-      <c r="DR2" s="50"/>
-      <c r="DS2" s="50"/>
-      <c r="DT2" s="50"/>
-      <c r="DU2" s="50"/>
-      <c r="DV2" s="50"/>
-      <c r="DW2" s="50"/>
-      <c r="DX2" s="50"/>
-      <c r="DY2" s="50"/>
-      <c r="DZ2" s="50"/>
-      <c r="EA2" s="50"/>
-      <c r="EB2" s="50"/>
-      <c r="EC2" s="50"/>
-      <c r="ED2" s="50"/>
-      <c r="EE2" s="50"/>
-      <c r="EF2" s="50"/>
-      <c r="EG2" s="50"/>
-      <c r="EH2" s="50"/>
-      <c r="EI2" s="50"/>
-      <c r="EJ2" s="50"/>
-      <c r="EK2" s="50"/>
-      <c r="EL2" s="50"/>
-      <c r="EM2" s="50"/>
-      <c r="EN2" s="50"/>
-      <c r="EO2" s="50"/>
-      <c r="EP2" s="50"/>
-      <c r="EQ2" s="50"/>
-      <c r="ER2" s="50"/>
-      <c r="ES2" s="50"/>
-      <c r="ET2" s="50"/>
-      <c r="EU2" s="50"/>
-      <c r="EV2" s="50"/>
-      <c r="EW2" s="50"/>
-      <c r="EX2" s="50"/>
-      <c r="EY2" s="50"/>
-      <c r="EZ2" s="50"/>
-      <c r="FA2" s="50"/>
-      <c r="FB2" s="50"/>
-      <c r="FC2" s="50"/>
-      <c r="FD2" s="50"/>
-      <c r="FE2" s="50"/>
-      <c r="FF2" s="50"/>
-      <c r="FG2" s="50"/>
-      <c r="FH2" s="50"/>
-      <c r="FI2" s="50"/>
-      <c r="FJ2" s="50"/>
-      <c r="FK2" s="50"/>
-      <c r="FL2" s="50"/>
-      <c r="FM2" s="50"/>
-      <c r="FN2" s="50"/>
-      <c r="FO2" s="50"/>
-      <c r="FP2" s="50"/>
-      <c r="FQ2" s="50"/>
-      <c r="FR2" s="50"/>
-      <c r="FS2" s="50"/>
-      <c r="FT2" s="50"/>
-    </row>
-    <row r="3" spans="1:176" s="1" customFormat="1" ht="28.5" customHeight="1">
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="14"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="14"/>
+      <c r="AV2" s="14"/>
+      <c r="AW2" s="14"/>
+      <c r="AX2" s="14"/>
+      <c r="AY2" s="14"/>
+      <c r="AZ2" s="14"/>
+      <c r="BA2" s="14"/>
+      <c r="BB2" s="14"/>
+      <c r="BC2" s="14"/>
+      <c r="BD2" s="14"/>
+      <c r="BE2" s="14"/>
+      <c r="BF2" s="14"/>
+      <c r="BG2" s="14"/>
+      <c r="BH2" s="14"/>
+      <c r="BI2" s="14"/>
+      <c r="BJ2" s="14"/>
+      <c r="BK2" s="14"/>
+      <c r="BL2" s="14"/>
+      <c r="BM2" s="14"/>
+      <c r="BN2" s="14"/>
+      <c r="BO2" s="14"/>
+      <c r="BP2" s="14"/>
+      <c r="BQ2" s="14"/>
+      <c r="BR2" s="14"/>
+      <c r="BS2" s="14"/>
+      <c r="BT2" s="14"/>
+      <c r="BU2" s="14"/>
+      <c r="BV2" s="14"/>
+      <c r="BW2" s="14"/>
+      <c r="BX2" s="14"/>
+      <c r="BY2" s="14"/>
+      <c r="BZ2" s="14"/>
+      <c r="CA2" s="14"/>
+      <c r="CB2" s="14"/>
+      <c r="CC2" s="14"/>
+      <c r="CD2" s="14"/>
+      <c r="CE2" s="14"/>
+      <c r="CF2" s="14"/>
+      <c r="CG2" s="14"/>
+      <c r="CH2" s="14"/>
+      <c r="CI2" s="14"/>
+      <c r="CJ2" s="14"/>
+      <c r="CK2" s="14"/>
+      <c r="CL2" s="14"/>
+      <c r="CM2" s="14"/>
+      <c r="CN2" s="14"/>
+      <c r="CO2" s="14"/>
+      <c r="CP2" s="14"/>
+      <c r="CQ2" s="14"/>
+      <c r="CR2" s="14"/>
+      <c r="CS2" s="14"/>
+      <c r="CT2" s="14"/>
+      <c r="CU2" s="14"/>
+      <c r="CV2" s="14"/>
+      <c r="CW2" s="14"/>
+      <c r="CX2" s="14"/>
+      <c r="CY2" s="14"/>
+      <c r="CZ2" s="14"/>
+      <c r="DA2" s="14"/>
+      <c r="DB2" s="14"/>
+      <c r="DC2" s="14"/>
+      <c r="DD2" s="14"/>
+      <c r="DE2" s="14"/>
+      <c r="DF2" s="14"/>
+      <c r="DG2" s="14"/>
+      <c r="DH2" s="14"/>
+      <c r="DI2" s="14"/>
+      <c r="DJ2" s="14"/>
+      <c r="DK2" s="14"/>
+      <c r="DL2" s="14"/>
+      <c r="DM2" s="14"/>
+      <c r="DN2" s="14"/>
+      <c r="DO2" s="14"/>
+      <c r="DP2" s="14"/>
+      <c r="DQ2" s="14"/>
+      <c r="DR2" s="14"/>
+      <c r="DS2" s="14"/>
+      <c r="DT2" s="14"/>
+      <c r="DU2" s="14"/>
+      <c r="DV2" s="14"/>
+      <c r="DW2" s="14"/>
+      <c r="DX2" s="14"/>
+      <c r="DY2" s="14"/>
+      <c r="DZ2" s="14"/>
+      <c r="EA2" s="14"/>
+      <c r="EB2" s="14"/>
+      <c r="EC2" s="14"/>
+      <c r="ED2" s="14"/>
+      <c r="EE2" s="14"/>
+      <c r="EF2" s="14"/>
+      <c r="EG2" s="14"/>
+      <c r="EH2" s="14"/>
+      <c r="EI2" s="14"/>
+      <c r="EJ2" s="14"/>
+      <c r="EK2" s="14"/>
+      <c r="EL2" s="14"/>
+      <c r="EM2" s="14"/>
+      <c r="EN2" s="14"/>
+      <c r="EO2" s="14"/>
+      <c r="EP2" s="14"/>
+      <c r="EQ2" s="14"/>
+      <c r="ER2" s="14"/>
+      <c r="ES2" s="14"/>
+      <c r="ET2" s="14"/>
+      <c r="EU2" s="14"/>
+      <c r="EV2" s="14"/>
+      <c r="EW2" s="14"/>
+      <c r="EX2" s="14"/>
+      <c r="EY2" s="14"/>
+      <c r="EZ2" s="14"/>
+      <c r="FA2" s="14"/>
+      <c r="FB2" s="14"/>
+      <c r="FC2" s="14"/>
+      <c r="FD2" s="14"/>
+      <c r="FE2" s="14"/>
+      <c r="FF2" s="14"/>
+      <c r="FG2" s="14"/>
+      <c r="FH2" s="14"/>
+      <c r="FI2" s="14"/>
+      <c r="FJ2" s="14"/>
+      <c r="FK2" s="14"/>
+      <c r="FL2" s="14"/>
+      <c r="FM2" s="14"/>
+      <c r="FN2" s="14"/>
+      <c r="FO2" s="14"/>
+      <c r="FP2" s="14"/>
+      <c r="FQ2" s="14"/>
+      <c r="FR2" s="14"/>
+      <c r="FS2" s="14"/>
+      <c r="FT2" s="14"/>
+    </row>
+    <row r="3" spans="1:176" ht="28.5" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3752,47 +4450,47 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="4"/>
-      <c r="W3" s="48">
+      <c r="V3" s="46"/>
+      <c r="W3" s="79">
         <v>43714</v>
       </c>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="4"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="46"/>
       <c r="AF3" s="3"/>
     </row>
-    <row r="4" spans="1:176" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="4" spans="1:176" ht="15.75" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
@@ -3800,44 +4498,44 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
-      <c r="AE4" s="47"/>
+      <c r="AE4" s="12"/>
       <c r="AF4" s="3"/>
     </row>
-    <row r="5" spans="1:176" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="5" spans="1:176" ht="15.75" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="Y5" s="46" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="Y5" s="11" t="s">
         <v>17</v>
       </c>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
-      <c r="AE5" s="47"/>
+      <c r="AE5" s="12"/>
       <c r="AF5" s="3"/>
     </row>
-    <row r="6" spans="1:176" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="6" spans="1:176" ht="15.75" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3860,7 +4558,7 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
-      <c r="Y6" s="46" t="s">
+      <c r="Y6" s="11" t="s">
         <v>16</v>
       </c>
       <c r="AA6" s="3"/>
@@ -3870,28 +4568,28 @@
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
     </row>
-    <row r="7" spans="1:176" s="1" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:176" ht="20.25" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="42" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="40"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="66"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -3907,91 +4605,91 @@
       <c r="AD7" s="3"/>
       <c r="AF7" s="3"/>
     </row>
-    <row r="8" spans="1:176" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="36" t="s">
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="34"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="75"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="W8" s="33" t="s">
+      <c r="W8" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33" t="s">
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="33" t="s">
+      <c r="AA8" s="63"/>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="AD8" s="33"/>
-      <c r="AE8" s="33"/>
+      <c r="AD8" s="63"/>
+      <c r="AE8" s="63"/>
       <c r="AF8" s="3"/>
     </row>
-    <row r="9" spans="1:176" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="27"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="78"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
-      <c r="W9" s="26" t="s">
+      <c r="W9" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="26" t="s">
+      <c r="X9" s="54"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="26" t="s">
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="24"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="55"/>
       <c r="AF9" s="3"/>
     </row>
-    <row r="10" spans="1:176" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="10" spans="1:176" ht="15.75" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4014,18 +4712,18 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="23"/>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="21"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="57"/>
+      <c r="AE10" s="58"/>
       <c r="AF10" s="3"/>
     </row>
-    <row r="11" spans="1:176" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="11" spans="1:176" ht="15.75" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4048,246 +4746,246 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="23"/>
-      <c r="AD11" s="22"/>
-      <c r="AE11" s="21"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="57"/>
+      <c r="AE11" s="58"/>
       <c r="AF11" s="3"/>
     </row>
-    <row r="12" spans="1:176" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="12" spans="1:176" ht="15.75" customHeight="1">
       <c r="A12" s="3"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="18"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="60"/>
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="60"/>
+      <c r="AE12" s="61"/>
       <c r="AF12" s="3"/>
     </row>
-    <row r="13" spans="1:176" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="13" spans="1:176" ht="15.75" customHeight="1">
       <c r="A13" s="3"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AC13" s="17"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AC13" s="7"/>
       <c r="AF13" s="3"/>
     </row>
-    <row r="14" spans="1:176" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="14" spans="1:176" ht="15.75" customHeight="1">
       <c r="A14" s="3"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AC14" s="17"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AC14" s="7"/>
       <c r="AF14" s="3"/>
     </row>
-    <row r="15" spans="1:176" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:176" ht="15" customHeight="1">
       <c r="A15" s="3"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="17"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
       <c r="AF15" s="3"/>
     </row>
-    <row r="16" spans="1:176" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="3"/>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="16"/>
-      <c r="AE16" s="16"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="62"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="62"/>
+      <c r="AB16" s="62"/>
+      <c r="AC16" s="62"/>
+      <c r="AD16" s="62"/>
+      <c r="AE16" s="62"/>
       <c r="AF16" s="3"/>
     </row>
-    <row r="17" spans="1:32" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
-      <c r="AE17" s="16"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="62"/>
+      <c r="AB17" s="62"/>
+      <c r="AC17" s="62"/>
+      <c r="AD17" s="62"/>
+      <c r="AE17" s="62"/>
       <c r="AF17" s="3"/>
     </row>
-    <row r="18" spans="1:32" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="3"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="16"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="62"/>
+      <c r="AB18" s="62"/>
+      <c r="AC18" s="62"/>
+      <c r="AD18" s="62"/>
+      <c r="AE18" s="62"/>
       <c r="AF18" s="3"/>
     </row>
-    <row r="19" spans="1:32" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:32" ht="15" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4320,7 +5018,7 @@
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
     </row>
-    <row r="20" spans="1:32" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="20" spans="1:32" ht="15" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4353,465 +5051,465 @@
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
     </row>
-    <row r="21" spans="1:32" s="13" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15" t="s">
+    <row r="21" spans="1:32" s="4" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="14"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="14"/>
-    </row>
-    <row r="22" spans="1:32" s="13" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="14"/>
-      <c r="Z22" s="14"/>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="14"/>
-      <c r="AC22" s="14"/>
-      <c r="AD22" s="14"/>
-      <c r="AE22" s="14"/>
-      <c r="AF22" s="14"/>
-    </row>
-    <row r="23" spans="1:32" s="13" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A23" s="14"/>
-      <c r="B23" s="6" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+    </row>
+    <row r="22" spans="1:32" s="4" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+    </row>
+    <row r="23" spans="1:32" s="4" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A23" s="5"/>
+      <c r="B23" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="6" t="s">
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="6" t="s">
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="6" t="s">
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="45"/>
+      <c r="AB23" s="46"/>
+      <c r="AC23" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="14"/>
-    </row>
-    <row r="24" spans="1:32" s="1" customFormat="1" ht="29.25" customHeight="1">
+      <c r="AD23" s="45"/>
+      <c r="AE23" s="46"/>
+      <c r="AF23" s="5"/>
+    </row>
+    <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="3"/>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="12">
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="47">
         <v>43714</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="6" t="s">
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="6" t="s">
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="45"/>
+      <c r="W24" s="45"/>
+      <c r="X24" s="45"/>
+      <c r="Y24" s="45"/>
+      <c r="Z24" s="45"/>
+      <c r="AA24" s="45"/>
+      <c r="AB24" s="46"/>
+      <c r="AC24" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="4"/>
+      <c r="AD24" s="45"/>
+      <c r="AE24" s="46"/>
       <c r="AF24" s="3"/>
     </row>
-    <row r="25" spans="1:32" s="1" customFormat="1" ht="29.25" customHeight="1">
+    <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="3"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="6"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="4"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="45"/>
+      <c r="Z25" s="45"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="46"/>
+      <c r="AC25" s="44"/>
+      <c r="AD25" s="45"/>
+      <c r="AE25" s="46"/>
       <c r="AF25" s="3"/>
     </row>
-    <row r="26" spans="1:32" s="1" customFormat="1" ht="29.25" customHeight="1">
+    <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="3"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="6"/>
-      <c r="AD26" s="5"/>
-      <c r="AE26" s="4"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="45"/>
+      <c r="Z26" s="45"/>
+      <c r="AA26" s="45"/>
+      <c r="AB26" s="46"/>
+      <c r="AC26" s="44"/>
+      <c r="AD26" s="45"/>
+      <c r="AE26" s="46"/>
       <c r="AF26" s="3"/>
     </row>
-    <row r="27" spans="1:32" s="1" customFormat="1" ht="29.25" customHeight="1">
+    <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="3"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="6"/>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="4"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="51"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="51"/>
+      <c r="Z27" s="51"/>
+      <c r="AA27" s="51"/>
+      <c r="AB27" s="52"/>
+      <c r="AC27" s="44"/>
+      <c r="AD27" s="45"/>
+      <c r="AE27" s="46"/>
       <c r="AF27" s="3"/>
     </row>
-    <row r="28" spans="1:32" s="1" customFormat="1" ht="29.25" customHeight="1">
+    <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="3"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="8"/>
-      <c r="AB28" s="7"/>
-      <c r="AC28" s="6"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="4"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="51"/>
+      <c r="W28" s="51"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="51"/>
+      <c r="Z28" s="51"/>
+      <c r="AA28" s="51"/>
+      <c r="AB28" s="52"/>
+      <c r="AC28" s="44"/>
+      <c r="AD28" s="45"/>
+      <c r="AE28" s="46"/>
       <c r="AF28" s="3"/>
     </row>
-    <row r="29" spans="1:32" s="1" customFormat="1" ht="29.25" customHeight="1">
+    <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="3"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="8"/>
-      <c r="AA29" s="8"/>
-      <c r="AB29" s="7"/>
-      <c r="AC29" s="6"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="4"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="51"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="51"/>
+      <c r="Z29" s="51"/>
+      <c r="AA29" s="51"/>
+      <c r="AB29" s="52"/>
+      <c r="AC29" s="44"/>
+      <c r="AD29" s="45"/>
+      <c r="AE29" s="46"/>
       <c r="AF29" s="3"/>
     </row>
-    <row r="30" spans="1:32" s="1" customFormat="1" ht="29.25" customHeight="1">
+    <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="3"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="7"/>
-      <c r="AC30" s="6"/>
-      <c r="AD30" s="5"/>
-      <c r="AE30" s="4"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="51"/>
+      <c r="Z30" s="51"/>
+      <c r="AA30" s="51"/>
+      <c r="AB30" s="52"/>
+      <c r="AC30" s="44"/>
+      <c r="AD30" s="45"/>
+      <c r="AE30" s="46"/>
       <c r="AF30" s="3"/>
     </row>
-    <row r="31" spans="1:32" s="1" customFormat="1" ht="29.25" customHeight="1">
+    <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="3"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="8"/>
-      <c r="AA31" s="8"/>
-      <c r="AB31" s="7"/>
-      <c r="AC31" s="6"/>
-      <c r="AD31" s="5"/>
-      <c r="AE31" s="4"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="51"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="51"/>
+      <c r="AA31" s="51"/>
+      <c r="AB31" s="52"/>
+      <c r="AC31" s="44"/>
+      <c r="AD31" s="45"/>
+      <c r="AE31" s="46"/>
       <c r="AF31" s="3"/>
     </row>
-    <row r="32" spans="1:32" s="1" customFormat="1" ht="29.25" customHeight="1">
+    <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="8"/>
-      <c r="AB32" s="7"/>
-      <c r="AC32" s="6"/>
-      <c r="AD32" s="5"/>
-      <c r="AE32" s="4"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="51"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="51"/>
+      <c r="Z32" s="51"/>
+      <c r="AA32" s="51"/>
+      <c r="AB32" s="52"/>
+      <c r="AC32" s="44"/>
+      <c r="AD32" s="45"/>
+      <c r="AE32" s="46"/>
       <c r="AF32" s="3"/>
     </row>
-    <row r="33" spans="1:32" s="1" customFormat="1" ht="29.25" customHeight="1">
+    <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="3"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="8"/>
-      <c r="AB33" s="7"/>
-      <c r="AC33" s="6"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="4"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="51"/>
+      <c r="Z33" s="51"/>
+      <c r="AA33" s="51"/>
+      <c r="AB33" s="52"/>
+      <c r="AC33" s="44"/>
+      <c r="AD33" s="45"/>
+      <c r="AE33" s="46"/>
       <c r="AF33" s="3"/>
     </row>
-    <row r="34" spans="1:32" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="34" spans="1:32" ht="15" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4846,52 +5544,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="W9:Y12"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B8:E9"/>
@@ -4902,6 +5554,52 @@
     <mergeCell ref="Z8:AB8"/>
     <mergeCell ref="AC9:AE12"/>
     <mergeCell ref="Z9:AB12"/>
+    <mergeCell ref="W9:Y12"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -4918,466 +5616,535 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="49" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="48" zoomScaleNormal="44" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5" style="56" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="56" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="56" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="56" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="56" customWidth="1"/>
-    <col min="6" max="6" width="54.5" style="56" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="56"/>
+    <col min="1" max="1" width="5" style="20" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="20" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="54.5" style="20" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="85"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="81" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="79" t="s">
+      <c r="D2" s="85"/>
+      <c r="E2" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="40" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="81" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="79" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="78">
+      <c r="F3" s="38">
         <v>43714</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="81" t="s">
+      <c r="B4" s="87"/>
+      <c r="C4" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="79" t="s">
+      <c r="D4" s="85"/>
+      <c r="E4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="84" t="s">
+      <c r="F4" s="40" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="81" t="s">
+      <c r="B5" s="87"/>
+      <c r="C5" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="79" t="s">
+      <c r="D5" s="85"/>
+      <c r="E5" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="84"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="81" t="s">
+      <c r="B6" s="87"/>
+      <c r="C6" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="79" t="s">
+      <c r="D6" s="85"/>
+      <c r="E6" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="78"/>
+      <c r="F6" s="38"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="75"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="35"/>
     </row>
     <row r="8" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="72"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="E9" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="69"/>
+      <c r="F9" s="83"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A10" s="67">
+      <c r="A10" s="29">
         <v>1</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="65"/>
-    </row>
-    <row r="11" spans="1:6" ht="33.5" customHeight="1">
-      <c r="A11" s="67">
+      <c r="F10" s="81"/>
+    </row>
+    <row r="11" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A11" s="29">
         <v>2</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="81"/>
+    </row>
+    <row r="12" spans="1:6" ht="33.5" customHeight="1">
+      <c r="A12" s="29">
+        <v>3</v>
+      </c>
+      <c r="B12" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C12" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D12" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="66" t="s">
+      <c r="E12" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="65"/>
-    </row>
-    <row r="12" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A12" s="67">
-        <v>3</v>
-      </c>
-      <c r="B12" s="67" t="s">
+      <c r="F12" s="81"/>
+    </row>
+    <row r="13" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A13" s="29">
+        <v>4</v>
+      </c>
+      <c r="B13" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C13" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D13" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="66" t="s">
+      <c r="E13" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="65"/>
-    </row>
-    <row r="13" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A13" s="67">
-        <v>4</v>
-      </c>
-      <c r="B13" s="68" t="s">
+      <c r="F13" s="81"/>
+    </row>
+    <row r="14" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A14" s="29">
+        <v>5</v>
+      </c>
+      <c r="B14" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C14" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D14" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="66" t="s">
+      <c r="E14" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="65"/>
-    </row>
-    <row r="14" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A14" s="67">
-        <v>5</v>
-      </c>
-      <c r="B14" s="67" t="s">
+      <c r="F14" s="81"/>
+    </row>
+    <row r="15" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A15" s="29">
+        <v>6</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="81"/>
+    </row>
+    <row r="16" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A16" s="29">
+        <v>7</v>
+      </c>
+      <c r="B16" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C16" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="D16" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="66" t="s">
+      <c r="E16" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="65"/>
-    </row>
-    <row r="15" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A15" s="67">
-        <v>6</v>
-      </c>
-      <c r="B15" s="67" t="s">
+      <c r="F16" s="81"/>
+    </row>
+    <row r="17" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A17" s="29">
+        <v>8</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C17" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D17" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="66" t="s">
+      <c r="E17" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="65"/>
-    </row>
-    <row r="16" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A16" s="64" t="s">
+      <c r="F17" s="81"/>
+    </row>
+    <row r="18" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A18" s="29">
+        <v>9</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="81"/>
+    </row>
+    <row r="19" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A19" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="62"/>
-    </row>
-    <row r="17" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A17" s="61"/>
-      <c r="F17" s="60"/>
-    </row>
-    <row r="18" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A18" s="61"/>
-      <c r="F18" s="60"/>
-    </row>
-    <row r="19" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A19" s="61"/>
-      <c r="F19" s="60"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="26"/>
     </row>
     <row r="20" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A20" s="61"/>
-      <c r="F20" s="60"/>
-    </row>
-    <row r="21" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A21" s="61"/>
-      <c r="F21" s="60"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="61"/>
-      <c r="F22" s="60"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="61"/>
-      <c r="F23" s="60"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="61"/>
-      <c r="F24" s="60"/>
+      <c r="A20" s="25"/>
+      <c r="F20" s="24"/>
+    </row>
+    <row r="21" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A21" s="25"/>
+      <c r="F21" s="24"/>
+    </row>
+    <row r="22" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A22" s="25"/>
+      <c r="F22" s="24"/>
+    </row>
+    <row r="23" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A23" s="25"/>
+      <c r="F23" s="24"/>
+    </row>
+    <row r="24" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A24" s="25"/>
+      <c r="F24" s="24"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="61"/>
-      <c r="F25" s="60"/>
+      <c r="A25" s="25"/>
+      <c r="F25" s="24"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="61"/>
-      <c r="F26" s="60"/>
+      <c r="A26" s="25"/>
+      <c r="F26" s="24"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="61"/>
-      <c r="F27" s="60"/>
+      <c r="A27" s="25"/>
+      <c r="F27" s="24"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="61"/>
-      <c r="F28" s="60"/>
+      <c r="A28" s="25"/>
+      <c r="F28" s="24"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="61"/>
-      <c r="F29" s="60"/>
+      <c r="A29" s="25"/>
+      <c r="F29" s="24"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="61"/>
-      <c r="F30" s="60"/>
+      <c r="A30" s="25"/>
+      <c r="F30" s="24"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="61"/>
-      <c r="F31" s="60"/>
+      <c r="A31" s="25"/>
+      <c r="F31" s="24"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="61"/>
-      <c r="F32" s="60"/>
+      <c r="A32" s="25"/>
+      <c r="F32" s="24"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="61"/>
-      <c r="F33" s="60"/>
+      <c r="A33" s="25"/>
+      <c r="F33" s="24"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="61"/>
-      <c r="F34" s="60"/>
+      <c r="A34" s="25"/>
+      <c r="F34" s="24"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="61"/>
-      <c r="F35" s="60"/>
+      <c r="A35" s="25"/>
+      <c r="F35" s="24"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="61"/>
-      <c r="F36" s="60"/>
+      <c r="A36" s="25"/>
+      <c r="F36" s="24"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="61"/>
-      <c r="F37" s="60"/>
+      <c r="A37" s="25"/>
+      <c r="F37" s="24"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="61"/>
-      <c r="F38" s="60"/>
+      <c r="A38" s="25"/>
+      <c r="F38" s="24"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="61"/>
-      <c r="F39" s="60"/>
+      <c r="A39" s="25"/>
+      <c r="F39" s="24"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="61"/>
-      <c r="F40" s="60"/>
+      <c r="A40" s="25"/>
+      <c r="F40" s="24"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="61"/>
-      <c r="F41" s="60"/>
+      <c r="A41" s="25"/>
+      <c r="F41" s="24"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="61"/>
-      <c r="F42" s="60"/>
+      <c r="A42" s="25"/>
+      <c r="F42" s="24"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="61"/>
-      <c r="F43" s="60"/>
+      <c r="A43" s="25"/>
+      <c r="F43" s="24"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="61"/>
-      <c r="F44" s="60"/>
+      <c r="A44" s="25"/>
+      <c r="F44" s="24"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="61"/>
-      <c r="F45" s="60"/>
+      <c r="A45" s="25"/>
+      <c r="F45" s="24"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="61"/>
-      <c r="F46" s="60"/>
+      <c r="A46" s="25"/>
+      <c r="F46" s="24"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="61"/>
-      <c r="F47" s="60"/>
+      <c r="A47" s="25"/>
+      <c r="F47" s="24"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="61"/>
-      <c r="F48" s="60"/>
+      <c r="A48" s="25"/>
+      <c r="F48" s="24"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="61"/>
-      <c r="F49" s="60"/>
+      <c r="A49" s="25"/>
+      <c r="F49" s="24"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="61"/>
-      <c r="F50" s="60"/>
+      <c r="A50" s="25"/>
+      <c r="F50" s="24"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="61"/>
-      <c r="F51" s="60"/>
+      <c r="A51" s="25"/>
+      <c r="F51" s="24"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="61"/>
-      <c r="F52" s="60"/>
+      <c r="A52" s="25"/>
+      <c r="F52" s="24"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="61"/>
-      <c r="F53" s="60"/>
+      <c r="A53" s="25"/>
+      <c r="F53" s="24"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="61"/>
-      <c r="F54" s="60"/>
+      <c r="A54" s="25"/>
+      <c r="F54" s="24"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="61"/>
-      <c r="F55" s="60"/>
+      <c r="A55" s="25"/>
+      <c r="F55" s="24"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="61"/>
-      <c r="F56" s="60"/>
+      <c r="A56" s="25"/>
+      <c r="F56" s="24"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="61"/>
-      <c r="F57" s="60"/>
+      <c r="A57" s="25"/>
+      <c r="F57" s="24"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="61"/>
-      <c r="F58" s="60"/>
+      <c r="A58" s="25"/>
+      <c r="F58" s="24"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="61"/>
-      <c r="F59" s="60"/>
+      <c r="A59" s="25"/>
+      <c r="F59" s="24"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="61"/>
-      <c r="F60" s="60"/>
+      <c r="A60" s="25"/>
+      <c r="F60" s="24"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="59"/>
-      <c r="B61" s="58"/>
-      <c r="C61" s="58"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="58"/>
-      <c r="F61" s="57"/>
+      <c r="A61" s="25"/>
+      <c r="F61" s="24"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="25"/>
+      <c r="F62" s="24"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="25"/>
+      <c r="F63" s="24"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="25"/>
+      <c r="F64" s="24"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="25"/>
+      <c r="F65" s="24"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="25"/>
+      <c r="F66" s="24"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="23"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+  <mergeCells count="20">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/設計書/DB設計書/E-Rモデル図.xlsx
+++ b/設計書/DB設計書/E-Rモデル図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\DB設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02EF770-32BB-48B1-B644-B3C9855667C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2B45EF-DB54-492E-9661-2826D8F69717}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{92B09A8F-5410-464D-8186-AB04D93AF3B1}"/>
   </bookViews>
@@ -987,13 +987,94 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1014,85 +1095,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1105,18 +1117,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1146,15 +1146,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>18406</xdr:colOff>
+      <xdr:colOff>18405</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>36811</xdr:rowOff>
+      <xdr:rowOff>36809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1962376</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>155511</xdr:rowOff>
+      <xdr:colOff>2116667</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1169,10 +1169,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4053302" y="7008582"/>
-          <a:ext cx="1943970" cy="4537242"/>
-          <a:chOff x="3418192" y="10059189"/>
-          <a:chExt cx="1661809" cy="3186886"/>
+          <a:off x="4049275" y="7104635"/>
+          <a:ext cx="2098262" cy="5204241"/>
+          <a:chOff x="3418191" y="10059189"/>
+          <a:chExt cx="1660428" cy="3082330"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1189,7 +1189,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="3418192" y="10059189"/>
-            <a:ext cx="1659963" cy="357516"/>
+            <a:ext cx="1655843" cy="302035"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1236,8 +1236,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3418192" y="10430212"/>
-            <a:ext cx="1661809" cy="2815863"/>
+            <a:off x="3418191" y="10379967"/>
+            <a:ext cx="1660428" cy="2761552"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1536,8 +1536,44 @@
               <a:rPr lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>    ＊所有ポイント</a:t>
-            </a:r>
+              <a:t>    ＊ポイント</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>    </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>＊最終ログ</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>    ＊連続ログイン回数</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
             <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
               <a:effectLst/>
             </a:endParaRPr>
@@ -1577,8 +1613,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="404640" y="6981687"/>
-          <a:ext cx="1953459" cy="1179447"/>
+          <a:off x="407516" y="7077742"/>
+          <a:ext cx="1944832" cy="1188650"/>
           <a:chOff x="3418191" y="9859118"/>
           <a:chExt cx="1674293" cy="1435525"/>
         </a:xfrm>
@@ -1728,8 +1764,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8263638" y="9134166"/>
-          <a:ext cx="1892479" cy="2244122"/>
+          <a:off x="8249834" y="9262432"/>
+          <a:ext cx="1892479" cy="2340752"/>
           <a:chOff x="3418192" y="9746055"/>
           <a:chExt cx="1653142" cy="3212510"/>
         </a:xfrm>
@@ -2165,8 +2201,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8221926" y="6991254"/>
-          <a:ext cx="1973352" cy="1886778"/>
+          <a:off x="8208122" y="7087309"/>
+          <a:ext cx="1973352" cy="1910936"/>
           <a:chOff x="3418191" y="10011386"/>
           <a:chExt cx="1661811" cy="1794326"/>
         </a:xfrm>
@@ -2410,8 +2446,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3961347" y="12689219"/>
-          <a:ext cx="1972790" cy="1845859"/>
+          <a:off x="3955596" y="12970482"/>
+          <a:ext cx="1974515" cy="1926385"/>
           <a:chOff x="3415451" y="10076010"/>
           <a:chExt cx="1665921" cy="1261021"/>
         </a:xfrm>
@@ -2746,8 +2782,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6764407" y="12686771"/>
-          <a:ext cx="1989523" cy="1240843"/>
+          <a:off x="6751753" y="12976087"/>
+          <a:ext cx="1988373" cy="1289158"/>
           <a:chOff x="3418191" y="9859118"/>
           <a:chExt cx="1674293" cy="1435525"/>
         </a:xfrm>
@@ -2947,8 +2983,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="383646" y="9469654"/>
-          <a:ext cx="1980889" cy="1244623"/>
+          <a:off x="386522" y="9614024"/>
+          <a:ext cx="1972262" cy="1300991"/>
           <a:chOff x="3415451" y="10076010"/>
           <a:chExt cx="1665921" cy="851816"/>
         </a:xfrm>
@@ -3144,8 +3180,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="487320" y="12689594"/>
-          <a:ext cx="1980889" cy="2138144"/>
+          <a:off x="490196" y="12970857"/>
+          <a:ext cx="1972262" cy="2234775"/>
           <a:chOff x="3415451" y="10076010"/>
           <a:chExt cx="1665921" cy="1458424"/>
         </a:xfrm>
@@ -3356,8 +3392,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9129745" y="12686770"/>
-          <a:ext cx="1971980" cy="1890962"/>
+          <a:off x="9115941" y="12976086"/>
+          <a:ext cx="1971980" cy="1971488"/>
           <a:chOff x="3415451" y="10076010"/>
           <a:chExt cx="1665921" cy="1290374"/>
         </a:xfrm>
@@ -3502,15 +3538,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>933061</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>25919</xdr:rowOff>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>946021</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>129592</xdr:rowOff>
+      <xdr:colOff>829689</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>26220</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3524,9 +3560,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4950408" y="10548776"/>
-          <a:ext cx="12960" cy="1075612"/>
+        <a:xfrm>
+          <a:off x="4857750" y="12276667"/>
+          <a:ext cx="4189" cy="597720"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3608,15 +3644,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1282959</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>25919</xdr:rowOff>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1295919</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>129592</xdr:rowOff>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3630,9 +3666,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5300306" y="10548776"/>
-          <a:ext cx="12960" cy="1075612"/>
+        <a:xfrm>
+          <a:off x="5365750" y="12276666"/>
+          <a:ext cx="0" cy="613834"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4450,21 +4486,21 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
-      <c r="U3" s="44" t="s">
+      <c r="U3" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="46"/>
-      <c r="W3" s="79">
+      <c r="V3" s="61"/>
+      <c r="W3" s="62">
         <v>43714</v>
       </c>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="46"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="61"/>
       <c r="AF3" s="3"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -4576,20 +4612,20 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="66"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="47"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -4607,86 +4643,86 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="73" t="s">
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="75"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="56"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="W8" s="63" t="s">
+      <c r="W8" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="X8" s="63"/>
-      <c r="Y8" s="63"/>
-      <c r="Z8" s="63" t="s">
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AA8" s="63"/>
-      <c r="AB8" s="63"/>
-      <c r="AC8" s="63" t="s">
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AD8" s="63"/>
-      <c r="AE8" s="63"/>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="44"/>
       <c r="AF8" s="3"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="78"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="59"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
-      <c r="W9" s="53" t="s">
+      <c r="W9" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="53" t="s">
+      <c r="X9" s="65"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="53" t="s">
+      <c r="AA9" s="65"/>
+      <c r="AB9" s="66"/>
+      <c r="AC9" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="55"/>
+      <c r="AD9" s="65"/>
+      <c r="AE9" s="66"/>
       <c r="AF9" s="3"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -4712,15 +4748,15 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="57"/>
-      <c r="AB10" s="58"/>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="57"/>
-      <c r="AE10" s="58"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="68"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="67"/>
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="69"/>
+      <c r="AC10" s="67"/>
+      <c r="AD10" s="68"/>
+      <c r="AE10" s="69"/>
       <c r="AF10" s="3"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -4746,15 +4782,15 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="57"/>
-      <c r="AE11" s="58"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="69"/>
+      <c r="Z11" s="67"/>
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="69"/>
+      <c r="AC11" s="67"/>
+      <c r="AD11" s="68"/>
+      <c r="AE11" s="69"/>
       <c r="AF11" s="3"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -4780,15 +4816,15 @@
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="61"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="60"/>
-      <c r="AB12" s="61"/>
-      <c r="AC12" s="59"/>
-      <c r="AD12" s="60"/>
-      <c r="AE12" s="61"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="71"/>
+      <c r="Y12" s="72"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="71"/>
+      <c r="AB12" s="72"/>
+      <c r="AC12" s="70"/>
+      <c r="AD12" s="71"/>
+      <c r="AE12" s="72"/>
       <c r="AF12" s="3"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -4883,106 +4919,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="3"/>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="62"/>
-      <c r="AB16" s="62"/>
-      <c r="AC16" s="62"/>
-      <c r="AD16" s="62"/>
-      <c r="AE16" s="62"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="73"/>
+      <c r="T16" s="73"/>
+      <c r="U16" s="73"/>
+      <c r="V16" s="73"/>
+      <c r="W16" s="73"/>
+      <c r="X16" s="73"/>
+      <c r="Y16" s="73"/>
+      <c r="Z16" s="73"/>
+      <c r="AA16" s="73"/>
+      <c r="AB16" s="73"/>
+      <c r="AC16" s="73"/>
+      <c r="AD16" s="73"/>
+      <c r="AE16" s="73"/>
       <c r="AF16" s="3"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="62"/>
-      <c r="W17" s="62"/>
-      <c r="X17" s="62"/>
-      <c r="Y17" s="62"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="62"/>
-      <c r="AB17" s="62"/>
-      <c r="AC17" s="62"/>
-      <c r="AD17" s="62"/>
-      <c r="AE17" s="62"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="73"/>
+      <c r="T17" s="73"/>
+      <c r="U17" s="73"/>
+      <c r="V17" s="73"/>
+      <c r="W17" s="73"/>
+      <c r="X17" s="73"/>
+      <c r="Y17" s="73"/>
+      <c r="Z17" s="73"/>
+      <c r="AA17" s="73"/>
+      <c r="AB17" s="73"/>
+      <c r="AC17" s="73"/>
+      <c r="AD17" s="73"/>
+      <c r="AE17" s="73"/>
       <c r="AF17" s="3"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="3"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="62"/>
-      <c r="T18" s="62"/>
-      <c r="U18" s="62"/>
-      <c r="V18" s="62"/>
-      <c r="W18" s="62"/>
-      <c r="X18" s="62"/>
-      <c r="Y18" s="62"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="62"/>
-      <c r="AB18" s="62"/>
-      <c r="AC18" s="62"/>
-      <c r="AD18" s="62"/>
-      <c r="AE18" s="62"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="73"/>
+      <c r="W18" s="73"/>
+      <c r="X18" s="73"/>
+      <c r="Y18" s="73"/>
+      <c r="Z18" s="73"/>
+      <c r="AA18" s="73"/>
+      <c r="AB18" s="73"/>
+      <c r="AC18" s="73"/>
+      <c r="AD18" s="73"/>
+      <c r="AE18" s="73"/>
       <c r="AF18" s="3"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -5121,392 +5157,392 @@
     </row>
     <row r="23" spans="1:32" s="4" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="5"/>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="44" t="s">
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="44" t="s">
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="45"/>
-      <c r="AA23" s="45"/>
-      <c r="AB23" s="46"/>
-      <c r="AC23" s="44" t="s">
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="63"/>
+      <c r="S23" s="63"/>
+      <c r="T23" s="63"/>
+      <c r="U23" s="63"/>
+      <c r="V23" s="63"/>
+      <c r="W23" s="63"/>
+      <c r="X23" s="63"/>
+      <c r="Y23" s="63"/>
+      <c r="Z23" s="63"/>
+      <c r="AA23" s="63"/>
+      <c r="AB23" s="61"/>
+      <c r="AC23" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="AD23" s="45"/>
-      <c r="AE23" s="46"/>
+      <c r="AD23" s="63"/>
+      <c r="AE23" s="61"/>
       <c r="AF23" s="5"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="3"/>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47">
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="74">
         <v>43714</v>
       </c>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="44" t="s">
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="45"/>
-      <c r="W24" s="45"/>
-      <c r="X24" s="45"/>
-      <c r="Y24" s="45"/>
-      <c r="Z24" s="45"/>
-      <c r="AA24" s="45"/>
-      <c r="AB24" s="46"/>
-      <c r="AC24" s="44" t="s">
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="63"/>
+      <c r="T24" s="63"/>
+      <c r="U24" s="63"/>
+      <c r="V24" s="63"/>
+      <c r="W24" s="63"/>
+      <c r="X24" s="63"/>
+      <c r="Y24" s="63"/>
+      <c r="Z24" s="63"/>
+      <c r="AA24" s="63"/>
+      <c r="AB24" s="61"/>
+      <c r="AC24" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="AD24" s="45"/>
-      <c r="AE24" s="46"/>
+      <c r="AD24" s="63"/>
+      <c r="AE24" s="61"/>
       <c r="AF24" s="3"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="3"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="45"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="45"/>
-      <c r="Y25" s="45"/>
-      <c r="Z25" s="45"/>
-      <c r="AA25" s="45"/>
-      <c r="AB25" s="46"/>
-      <c r="AC25" s="44"/>
-      <c r="AD25" s="45"/>
-      <c r="AE25" s="46"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="63"/>
+      <c r="U25" s="63"/>
+      <c r="V25" s="63"/>
+      <c r="W25" s="63"/>
+      <c r="X25" s="63"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="63"/>
+      <c r="AA25" s="63"/>
+      <c r="AB25" s="61"/>
+      <c r="AC25" s="60"/>
+      <c r="AD25" s="63"/>
+      <c r="AE25" s="61"/>
       <c r="AF25" s="3"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="3"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="X26" s="45"/>
-      <c r="Y26" s="45"/>
-      <c r="Z26" s="45"/>
-      <c r="AA26" s="45"/>
-      <c r="AB26" s="46"/>
-      <c r="AC26" s="44"/>
-      <c r="AD26" s="45"/>
-      <c r="AE26" s="46"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="63"/>
+      <c r="U26" s="63"/>
+      <c r="V26" s="63"/>
+      <c r="W26" s="63"/>
+      <c r="X26" s="63"/>
+      <c r="Y26" s="63"/>
+      <c r="Z26" s="63"/>
+      <c r="AA26" s="63"/>
+      <c r="AB26" s="61"/>
+      <c r="AC26" s="60"/>
+      <c r="AD26" s="63"/>
+      <c r="AE26" s="61"/>
       <c r="AF26" s="3"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="3"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="51"/>
-      <c r="U27" s="51"/>
-      <c r="V27" s="51"/>
-      <c r="W27" s="51"/>
-      <c r="X27" s="51"/>
-      <c r="Y27" s="51"/>
-      <c r="Z27" s="51"/>
-      <c r="AA27" s="51"/>
-      <c r="AB27" s="52"/>
-      <c r="AC27" s="44"/>
-      <c r="AD27" s="45"/>
-      <c r="AE27" s="46"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="78"/>
+      <c r="W27" s="78"/>
+      <c r="X27" s="78"/>
+      <c r="Y27" s="78"/>
+      <c r="Z27" s="78"/>
+      <c r="AA27" s="78"/>
+      <c r="AB27" s="79"/>
+      <c r="AC27" s="60"/>
+      <c r="AD27" s="63"/>
+      <c r="AE27" s="61"/>
       <c r="AF27" s="3"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="3"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="51"/>
-      <c r="V28" s="51"/>
-      <c r="W28" s="51"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="51"/>
-      <c r="Z28" s="51"/>
-      <c r="AA28" s="51"/>
-      <c r="AB28" s="52"/>
-      <c r="AC28" s="44"/>
-      <c r="AD28" s="45"/>
-      <c r="AE28" s="46"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="78"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="78"/>
+      <c r="S28" s="78"/>
+      <c r="T28" s="78"/>
+      <c r="U28" s="78"/>
+      <c r="V28" s="78"/>
+      <c r="W28" s="78"/>
+      <c r="X28" s="78"/>
+      <c r="Y28" s="78"/>
+      <c r="Z28" s="78"/>
+      <c r="AA28" s="78"/>
+      <c r="AB28" s="79"/>
+      <c r="AC28" s="60"/>
+      <c r="AD28" s="63"/>
+      <c r="AE28" s="61"/>
       <c r="AF28" s="3"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="3"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="51"/>
-      <c r="W29" s="51"/>
-      <c r="X29" s="51"/>
-      <c r="Y29" s="51"/>
-      <c r="Z29" s="51"/>
-      <c r="AA29" s="51"/>
-      <c r="AB29" s="52"/>
-      <c r="AC29" s="44"/>
-      <c r="AD29" s="45"/>
-      <c r="AE29" s="46"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="78"/>
+      <c r="U29" s="78"/>
+      <c r="V29" s="78"/>
+      <c r="W29" s="78"/>
+      <c r="X29" s="78"/>
+      <c r="Y29" s="78"/>
+      <c r="Z29" s="78"/>
+      <c r="AA29" s="78"/>
+      <c r="AB29" s="79"/>
+      <c r="AC29" s="60"/>
+      <c r="AD29" s="63"/>
+      <c r="AE29" s="61"/>
       <c r="AF29" s="3"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="3"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="51"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="51"/>
-      <c r="T30" s="51"/>
-      <c r="U30" s="51"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="51"/>
-      <c r="X30" s="51"/>
-      <c r="Y30" s="51"/>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="51"/>
-      <c r="AB30" s="52"/>
-      <c r="AC30" s="44"/>
-      <c r="AD30" s="45"/>
-      <c r="AE30" s="46"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="78"/>
+      <c r="S30" s="78"/>
+      <c r="T30" s="78"/>
+      <c r="U30" s="78"/>
+      <c r="V30" s="78"/>
+      <c r="W30" s="78"/>
+      <c r="X30" s="78"/>
+      <c r="Y30" s="78"/>
+      <c r="Z30" s="78"/>
+      <c r="AA30" s="78"/>
+      <c r="AB30" s="79"/>
+      <c r="AC30" s="60"/>
+      <c r="AD30" s="63"/>
+      <c r="AE30" s="61"/>
       <c r="AF30" s="3"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="3"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="51"/>
-      <c r="T31" s="51"/>
-      <c r="U31" s="51"/>
-      <c r="V31" s="51"/>
-      <c r="W31" s="51"/>
-      <c r="X31" s="51"/>
-      <c r="Y31" s="51"/>
-      <c r="Z31" s="51"/>
-      <c r="AA31" s="51"/>
-      <c r="AB31" s="52"/>
-      <c r="AC31" s="44"/>
-      <c r="AD31" s="45"/>
-      <c r="AE31" s="46"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="78"/>
+      <c r="Q31" s="78"/>
+      <c r="R31" s="78"/>
+      <c r="S31" s="78"/>
+      <c r="T31" s="78"/>
+      <c r="U31" s="78"/>
+      <c r="V31" s="78"/>
+      <c r="W31" s="78"/>
+      <c r="X31" s="78"/>
+      <c r="Y31" s="78"/>
+      <c r="Z31" s="78"/>
+      <c r="AA31" s="78"/>
+      <c r="AB31" s="79"/>
+      <c r="AC31" s="60"/>
+      <c r="AD31" s="63"/>
+      <c r="AE31" s="61"/>
       <c r="AF31" s="3"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="51"/>
-      <c r="U32" s="51"/>
-      <c r="V32" s="51"/>
-      <c r="W32" s="51"/>
-      <c r="X32" s="51"/>
-      <c r="Y32" s="51"/>
-      <c r="Z32" s="51"/>
-      <c r="AA32" s="51"/>
-      <c r="AB32" s="52"/>
-      <c r="AC32" s="44"/>
-      <c r="AD32" s="45"/>
-      <c r="AE32" s="46"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="78"/>
+      <c r="Q32" s="78"/>
+      <c r="R32" s="78"/>
+      <c r="S32" s="78"/>
+      <c r="T32" s="78"/>
+      <c r="U32" s="78"/>
+      <c r="V32" s="78"/>
+      <c r="W32" s="78"/>
+      <c r="X32" s="78"/>
+      <c r="Y32" s="78"/>
+      <c r="Z32" s="78"/>
+      <c r="AA32" s="78"/>
+      <c r="AB32" s="79"/>
+      <c r="AC32" s="60"/>
+      <c r="AD32" s="63"/>
+      <c r="AE32" s="61"/>
       <c r="AF32" s="3"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="3"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="51"/>
-      <c r="Q33" s="51"/>
-      <c r="R33" s="51"/>
-      <c r="S33" s="51"/>
-      <c r="T33" s="51"/>
-      <c r="U33" s="51"/>
-      <c r="V33" s="51"/>
-      <c r="W33" s="51"/>
-      <c r="X33" s="51"/>
-      <c r="Y33" s="51"/>
-      <c r="Z33" s="51"/>
-      <c r="AA33" s="51"/>
-      <c r="AB33" s="52"/>
-      <c r="AC33" s="44"/>
-      <c r="AD33" s="45"/>
-      <c r="AE33" s="46"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="78"/>
+      <c r="M33" s="78"/>
+      <c r="N33" s="78"/>
+      <c r="O33" s="78"/>
+      <c r="P33" s="78"/>
+      <c r="Q33" s="78"/>
+      <c r="R33" s="78"/>
+      <c r="S33" s="78"/>
+      <c r="T33" s="78"/>
+      <c r="U33" s="78"/>
+      <c r="V33" s="78"/>
+      <c r="W33" s="78"/>
+      <c r="X33" s="78"/>
+      <c r="Y33" s="78"/>
+      <c r="Z33" s="78"/>
+      <c r="AA33" s="78"/>
+      <c r="AB33" s="79"/>
+      <c r="AC33" s="60"/>
+      <c r="AD33" s="63"/>
+      <c r="AE33" s="61"/>
       <c r="AF33" s="3"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -5544,6 +5580,51 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B8:E9"/>
@@ -5555,51 +5636,6 @@
     <mergeCell ref="AC9:AE12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="W9:Y12"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -5618,8 +5654,8 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="48" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="46" zoomScaleNormal="44" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5644,14 +5680,14 @@
       <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="84" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="85"/>
+      <c r="D2" s="83"/>
       <c r="E2" s="39" t="s">
         <v>57</v>
       </c>
@@ -5660,14 +5696,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="81"/>
+      <c r="C3" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="85"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="39" t="s">
         <v>54</v>
       </c>
@@ -5676,14 +5712,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="84" t="s">
+      <c r="B4" s="81"/>
+      <c r="C4" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="85"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="39" t="s">
         <v>6</v>
       </c>
@@ -5692,28 +5728,28 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="84" t="s">
+      <c r="B5" s="81"/>
+      <c r="C5" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="85"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="39" t="s">
         <v>49</v>
       </c>
       <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="81"/>
+      <c r="C6" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="85"/>
+      <c r="D6" s="83"/>
       <c r="E6" s="39" t="s">
         <v>46</v>
       </c>
@@ -5750,10 +5786,10 @@
       <c r="D9" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="82" t="s">
+      <c r="E9" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="83"/>
+      <c r="F9" s="87"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="29">
@@ -5768,10 +5804,10 @@
       <c r="D10" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="80" t="s">
+      <c r="E10" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="81"/>
+      <c r="F10" s="85"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="29">
@@ -5786,10 +5822,10 @@
       <c r="D11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="80" t="s">
+      <c r="E11" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="81"/>
+      <c r="F11" s="85"/>
     </row>
     <row r="12" spans="1:6" ht="33.5" customHeight="1">
       <c r="A12" s="29">
@@ -5804,10 +5840,10 @@
       <c r="D12" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="80" t="s">
+      <c r="E12" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="81"/>
+      <c r="F12" s="85"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="29">
@@ -5822,10 +5858,10 @@
       <c r="D13" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="80" t="s">
+      <c r="E13" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="81"/>
+      <c r="F13" s="85"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="29">
@@ -5840,10 +5876,10 @@
       <c r="D14" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="80" t="s">
+      <c r="E14" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="81"/>
+      <c r="F14" s="85"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="29">
@@ -5858,10 +5894,10 @@
       <c r="D15" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="80" t="s">
+      <c r="E15" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="81"/>
+      <c r="F15" s="85"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="29">
@@ -5876,10 +5912,10 @@
       <c r="D16" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="80" t="s">
+      <c r="E16" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="81"/>
+      <c r="F16" s="85"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="29">
@@ -5894,10 +5930,10 @@
       <c r="D17" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="80" t="s">
+      <c r="E17" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="81"/>
+      <c r="F17" s="85"/>
     </row>
     <row r="18" spans="1:6" ht="33.75" customHeight="1">
       <c r="A18" s="29">
@@ -5912,10 +5948,10 @@
       <c r="D18" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="80" t="s">
+      <c r="E18" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="81"/>
+      <c r="F18" s="85"/>
     </row>
     <row r="19" spans="1:6" ht="33.75" customHeight="1">
       <c r="A19" s="28" t="s">
@@ -6125,16 +6161,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E13:F13"/>
@@ -6145,6 +6171,16 @@
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/設計書/DB設計書/E-Rモデル図.xlsx
+++ b/設計書/DB設計書/E-Rモデル図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\DB設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2B45EF-DB54-492E-9661-2826D8F69717}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AA36C1-D941-4A26-B699-6F67310B62AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{92B09A8F-5410-464D-8186-AB04D93AF3B1}"/>
   </bookViews>
@@ -987,6 +987,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1035,18 +1065,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1074,49 +1095,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1169,8 +1169,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4049275" y="7104635"/>
-          <a:ext cx="2098262" cy="5204241"/>
+          <a:off x="4045642" y="6988388"/>
+          <a:ext cx="2098262" cy="4998629"/>
           <a:chOff x="3418191" y="10059189"/>
           <a:chExt cx="1660428" cy="3082330"/>
         </a:xfrm>
@@ -1613,8 +1613,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="407516" y="7077742"/>
-          <a:ext cx="1944832" cy="1188650"/>
+          <a:off x="405336" y="6961495"/>
+          <a:ext cx="1951371" cy="1168306"/>
           <a:chOff x="3418191" y="9859118"/>
           <a:chExt cx="1674293" cy="1435525"/>
         </a:xfrm>
@@ -1764,8 +1764,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8249834" y="9262432"/>
-          <a:ext cx="1892479" cy="2340752"/>
+          <a:off x="8246927" y="9091694"/>
+          <a:ext cx="1892479" cy="2227411"/>
           <a:chOff x="3418192" y="9746055"/>
           <a:chExt cx="1653142" cy="3212510"/>
         </a:xfrm>
@@ -2201,8 +2201,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8208122" y="7087309"/>
-          <a:ext cx="1973352" cy="1910936"/>
+          <a:off x="8205215" y="6971062"/>
+          <a:ext cx="1973352" cy="1865890"/>
           <a:chOff x="3418191" y="10011386"/>
           <a:chExt cx="1661811" cy="1794326"/>
         </a:xfrm>
@@ -2446,8 +2446,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3955596" y="12970482"/>
-          <a:ext cx="1974515" cy="1926385"/>
+          <a:off x="3959955" y="12620288"/>
+          <a:ext cx="1966523" cy="1831933"/>
           <a:chOff x="3415451" y="10076010"/>
           <a:chExt cx="1665921" cy="1261021"/>
         </a:xfrm>
@@ -2600,13 +2600,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1985635</xdr:colOff>
+      <xdr:colOff>2152740</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>413256</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>796270</xdr:colOff>
+      <xdr:colOff>963375</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2623,8 +2623,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2741285" y="4343906"/>
-          <a:ext cx="1376035" cy="0"/>
+          <a:off x="6179977" y="7782598"/>
+          <a:ext cx="2069187" cy="4507"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2653,15 +2653,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1987826</xdr:colOff>
+      <xdr:colOff>2138220</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>147247</xdr:rowOff>
+      <xdr:rowOff>163957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>846666</xdr:colOff>
+      <xdr:colOff>997060</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>156450</xdr:rowOff>
+      <xdr:rowOff>173160</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2676,8 +2676,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2743476" y="6090847"/>
-          <a:ext cx="1373440" cy="9203"/>
+          <a:off x="6165457" y="9655536"/>
+          <a:ext cx="2117392" cy="9203"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2782,8 +2782,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6751753" y="12976087"/>
-          <a:ext cx="1988373" cy="1289158"/>
+          <a:off x="6754660" y="12616447"/>
+          <a:ext cx="1982559" cy="1232488"/>
           <a:chOff x="3418191" y="9859118"/>
           <a:chExt cx="1674293" cy="1435525"/>
         </a:xfrm>
@@ -2983,8 +2983,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="386522" y="9614024"/>
-          <a:ext cx="1972262" cy="1300991"/>
+          <a:off x="384342" y="9424396"/>
+          <a:ext cx="1978801" cy="1234876"/>
           <a:chOff x="3415451" y="10076010"/>
           <a:chExt cx="1665921" cy="851816"/>
         </a:xfrm>
@@ -3180,8 +3180,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="490196" y="12970857"/>
-          <a:ext cx="1972262" cy="2234775"/>
+          <a:off x="488016" y="12620663"/>
+          <a:ext cx="1978801" cy="2121433"/>
           <a:chOff x="3415451" y="10076010"/>
           <a:chExt cx="1665921" cy="1458424"/>
         </a:xfrm>
@@ -3392,8 +3392,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9115941" y="12976086"/>
-          <a:ext cx="1971980" cy="1971488"/>
+          <a:off x="9113034" y="12616446"/>
+          <a:ext cx="1971980" cy="1877037"/>
           <a:chOff x="3415451" y="10076010"/>
           <a:chExt cx="1665921" cy="1290374"/>
         </a:xfrm>
@@ -3697,15 +3697,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1969796</xdr:colOff>
+      <xdr:colOff>2136902</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>323979</xdr:rowOff>
+      <xdr:rowOff>340689</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>780431</xdr:colOff>
+      <xdr:colOff>947537</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>338376</xdr:rowOff>
+      <xdr:rowOff>355086</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3720,8 +3720,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5987143" y="6946122"/>
-          <a:ext cx="2076349" cy="14397"/>
+          <a:off x="6164139" y="8127794"/>
+          <a:ext cx="2069187" cy="14397"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4486,21 +4486,21 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
-      <c r="U3" s="60" t="s">
+      <c r="U3" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="61"/>
-      <c r="W3" s="62">
+      <c r="V3" s="46"/>
+      <c r="W3" s="70">
         <v>43714</v>
       </c>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="61"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="46"/>
       <c r="AF3" s="3"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -4612,20 +4612,20 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="47"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="57"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -4643,86 +4643,86 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="54" t="s">
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="56"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="66"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="W8" s="44" t="s">
+      <c r="W8" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44" t="s">
+      <c r="X8" s="54"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44" t="s">
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="54"/>
+      <c r="AC8" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="44"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="54"/>
       <c r="AF8" s="3"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="59"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="69"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
-      <c r="W9" s="64" t="s">
+      <c r="W9" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="64" t="s">
+      <c r="X9" s="72"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="66"/>
-      <c r="AC9" s="64" t="s">
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="73"/>
+      <c r="AC9" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="AD9" s="65"/>
-      <c r="AE9" s="66"/>
+      <c r="AD9" s="72"/>
+      <c r="AE9" s="73"/>
       <c r="AF9" s="3"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -4748,15 +4748,15 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-      <c r="W10" s="67"/>
-      <c r="X10" s="68"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="67"/>
-      <c r="AA10" s="68"/>
-      <c r="AB10" s="69"/>
-      <c r="AC10" s="67"/>
-      <c r="AD10" s="68"/>
-      <c r="AE10" s="69"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="76"/>
       <c r="AF10" s="3"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -4782,15 +4782,15 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="69"/>
-      <c r="Z11" s="67"/>
-      <c r="AA11" s="68"/>
-      <c r="AB11" s="69"/>
-      <c r="AC11" s="67"/>
-      <c r="AD11" s="68"/>
-      <c r="AE11" s="69"/>
+      <c r="W11" s="74"/>
+      <c r="X11" s="75"/>
+      <c r="Y11" s="76"/>
+      <c r="Z11" s="74"/>
+      <c r="AA11" s="75"/>
+      <c r="AB11" s="76"/>
+      <c r="AC11" s="74"/>
+      <c r="AD11" s="75"/>
+      <c r="AE11" s="76"/>
       <c r="AF11" s="3"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -4816,15 +4816,15 @@
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
-      <c r="W12" s="70"/>
-      <c r="X12" s="71"/>
-      <c r="Y12" s="72"/>
-      <c r="Z12" s="70"/>
-      <c r="AA12" s="71"/>
-      <c r="AB12" s="72"/>
-      <c r="AC12" s="70"/>
-      <c r="AD12" s="71"/>
-      <c r="AE12" s="72"/>
+      <c r="W12" s="77"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="79"/>
+      <c r="Z12" s="77"/>
+      <c r="AA12" s="78"/>
+      <c r="AB12" s="79"/>
+      <c r="AC12" s="77"/>
+      <c r="AD12" s="78"/>
+      <c r="AE12" s="79"/>
       <c r="AF12" s="3"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -4919,106 +4919,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="3"/>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="73"/>
-      <c r="U16" s="73"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="73"/>
-      <c r="AA16" s="73"/>
-      <c r="AB16" s="73"/>
-      <c r="AC16" s="73"/>
-      <c r="AD16" s="73"/>
-      <c r="AE16" s="73"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="53"/>
+      <c r="AD16" s="53"/>
+      <c r="AE16" s="53"/>
       <c r="AF16" s="3"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="73"/>
-      <c r="T17" s="73"/>
-      <c r="U17" s="73"/>
-      <c r="V17" s="73"/>
-      <c r="W17" s="73"/>
-      <c r="X17" s="73"/>
-      <c r="Y17" s="73"/>
-      <c r="Z17" s="73"/>
-      <c r="AA17" s="73"/>
-      <c r="AB17" s="73"/>
-      <c r="AC17" s="73"/>
-      <c r="AD17" s="73"/>
-      <c r="AE17" s="73"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="53"/>
+      <c r="AB17" s="53"/>
+      <c r="AC17" s="53"/>
+      <c r="AD17" s="53"/>
+      <c r="AE17" s="53"/>
       <c r="AF17" s="3"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="3"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="73"/>
-      <c r="S18" s="73"/>
-      <c r="T18" s="73"/>
-      <c r="U18" s="73"/>
-      <c r="V18" s="73"/>
-      <c r="W18" s="73"/>
-      <c r="X18" s="73"/>
-      <c r="Y18" s="73"/>
-      <c r="Z18" s="73"/>
-      <c r="AA18" s="73"/>
-      <c r="AB18" s="73"/>
-      <c r="AC18" s="73"/>
-      <c r="AD18" s="73"/>
-      <c r="AE18" s="73"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="53"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="53"/>
+      <c r="Y18" s="53"/>
+      <c r="Z18" s="53"/>
+      <c r="AA18" s="53"/>
+      <c r="AB18" s="53"/>
+      <c r="AC18" s="53"/>
+      <c r="AD18" s="53"/>
+      <c r="AE18" s="53"/>
       <c r="AF18" s="3"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -5157,392 +5157,392 @@
     </row>
     <row r="23" spans="1:32" s="4" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="5"/>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="60" t="s">
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="60" t="s">
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="63"/>
-      <c r="S23" s="63"/>
-      <c r="T23" s="63"/>
-      <c r="U23" s="63"/>
-      <c r="V23" s="63"/>
-      <c r="W23" s="63"/>
-      <c r="X23" s="63"/>
-      <c r="Y23" s="63"/>
-      <c r="Z23" s="63"/>
-      <c r="AA23" s="63"/>
-      <c r="AB23" s="61"/>
-      <c r="AC23" s="60" t="s">
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="45"/>
+      <c r="AB23" s="46"/>
+      <c r="AC23" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AD23" s="63"/>
-      <c r="AE23" s="61"/>
+      <c r="AD23" s="45"/>
+      <c r="AE23" s="46"/>
       <c r="AF23" s="5"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="3"/>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="74">
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="47">
         <v>43714</v>
       </c>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="60" t="s">
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="63"/>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="63"/>
-      <c r="R24" s="63"/>
-      <c r="S24" s="63"/>
-      <c r="T24" s="63"/>
-      <c r="U24" s="63"/>
-      <c r="V24" s="63"/>
-      <c r="W24" s="63"/>
-      <c r="X24" s="63"/>
-      <c r="Y24" s="63"/>
-      <c r="Z24" s="63"/>
-      <c r="AA24" s="63"/>
-      <c r="AB24" s="61"/>
-      <c r="AC24" s="60" t="s">
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="45"/>
+      <c r="W24" s="45"/>
+      <c r="X24" s="45"/>
+      <c r="Y24" s="45"/>
+      <c r="Z24" s="45"/>
+      <c r="AA24" s="45"/>
+      <c r="AB24" s="46"/>
+      <c r="AC24" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="AD24" s="63"/>
-      <c r="AE24" s="61"/>
+      <c r="AD24" s="45"/>
+      <c r="AE24" s="46"/>
       <c r="AF24" s="3"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="3"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="63"/>
-      <c r="S25" s="63"/>
-      <c r="T25" s="63"/>
-      <c r="U25" s="63"/>
-      <c r="V25" s="63"/>
-      <c r="W25" s="63"/>
-      <c r="X25" s="63"/>
-      <c r="Y25" s="63"/>
-      <c r="Z25" s="63"/>
-      <c r="AA25" s="63"/>
-      <c r="AB25" s="61"/>
-      <c r="AC25" s="60"/>
-      <c r="AD25" s="63"/>
-      <c r="AE25" s="61"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="45"/>
+      <c r="Z25" s="45"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="46"/>
+      <c r="AC25" s="44"/>
+      <c r="AD25" s="45"/>
+      <c r="AE25" s="46"/>
       <c r="AF25" s="3"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="3"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="63"/>
-      <c r="R26" s="63"/>
-      <c r="S26" s="63"/>
-      <c r="T26" s="63"/>
-      <c r="U26" s="63"/>
-      <c r="V26" s="63"/>
-      <c r="W26" s="63"/>
-      <c r="X26" s="63"/>
-      <c r="Y26" s="63"/>
-      <c r="Z26" s="63"/>
-      <c r="AA26" s="63"/>
-      <c r="AB26" s="61"/>
-      <c r="AC26" s="60"/>
-      <c r="AD26" s="63"/>
-      <c r="AE26" s="61"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="45"/>
+      <c r="Z26" s="45"/>
+      <c r="AA26" s="45"/>
+      <c r="AB26" s="46"/>
+      <c r="AC26" s="44"/>
+      <c r="AD26" s="45"/>
+      <c r="AE26" s="46"/>
       <c r="AF26" s="3"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="3"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="78"/>
-      <c r="V27" s="78"/>
-      <c r="W27" s="78"/>
-      <c r="X27" s="78"/>
-      <c r="Y27" s="78"/>
-      <c r="Z27" s="78"/>
-      <c r="AA27" s="78"/>
-      <c r="AB27" s="79"/>
-      <c r="AC27" s="60"/>
-      <c r="AD27" s="63"/>
-      <c r="AE27" s="61"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="51"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="51"/>
+      <c r="Z27" s="51"/>
+      <c r="AA27" s="51"/>
+      <c r="AB27" s="52"/>
+      <c r="AC27" s="44"/>
+      <c r="AD27" s="45"/>
+      <c r="AE27" s="46"/>
       <c r="AF27" s="3"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="3"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="78"/>
-      <c r="P28" s="78"/>
-      <c r="Q28" s="78"/>
-      <c r="R28" s="78"/>
-      <c r="S28" s="78"/>
-      <c r="T28" s="78"/>
-      <c r="U28" s="78"/>
-      <c r="V28" s="78"/>
-      <c r="W28" s="78"/>
-      <c r="X28" s="78"/>
-      <c r="Y28" s="78"/>
-      <c r="Z28" s="78"/>
-      <c r="AA28" s="78"/>
-      <c r="AB28" s="79"/>
-      <c r="AC28" s="60"/>
-      <c r="AD28" s="63"/>
-      <c r="AE28" s="61"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="51"/>
+      <c r="W28" s="51"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="51"/>
+      <c r="Z28" s="51"/>
+      <c r="AA28" s="51"/>
+      <c r="AB28" s="52"/>
+      <c r="AC28" s="44"/>
+      <c r="AD28" s="45"/>
+      <c r="AE28" s="46"/>
       <c r="AF28" s="3"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="3"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78"/>
-      <c r="P29" s="78"/>
-      <c r="Q29" s="78"/>
-      <c r="R29" s="78"/>
-      <c r="S29" s="78"/>
-      <c r="T29" s="78"/>
-      <c r="U29" s="78"/>
-      <c r="V29" s="78"/>
-      <c r="W29" s="78"/>
-      <c r="X29" s="78"/>
-      <c r="Y29" s="78"/>
-      <c r="Z29" s="78"/>
-      <c r="AA29" s="78"/>
-      <c r="AB29" s="79"/>
-      <c r="AC29" s="60"/>
-      <c r="AD29" s="63"/>
-      <c r="AE29" s="61"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="51"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="51"/>
+      <c r="Z29" s="51"/>
+      <c r="AA29" s="51"/>
+      <c r="AB29" s="52"/>
+      <c r="AC29" s="44"/>
+      <c r="AD29" s="45"/>
+      <c r="AE29" s="46"/>
       <c r="AF29" s="3"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="3"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="78"/>
-      <c r="Q30" s="78"/>
-      <c r="R30" s="78"/>
-      <c r="S30" s="78"/>
-      <c r="T30" s="78"/>
-      <c r="U30" s="78"/>
-      <c r="V30" s="78"/>
-      <c r="W30" s="78"/>
-      <c r="X30" s="78"/>
-      <c r="Y30" s="78"/>
-      <c r="Z30" s="78"/>
-      <c r="AA30" s="78"/>
-      <c r="AB30" s="79"/>
-      <c r="AC30" s="60"/>
-      <c r="AD30" s="63"/>
-      <c r="AE30" s="61"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="51"/>
+      <c r="Z30" s="51"/>
+      <c r="AA30" s="51"/>
+      <c r="AB30" s="52"/>
+      <c r="AC30" s="44"/>
+      <c r="AD30" s="45"/>
+      <c r="AE30" s="46"/>
       <c r="AF30" s="3"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="3"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
-      <c r="P31" s="78"/>
-      <c r="Q31" s="78"/>
-      <c r="R31" s="78"/>
-      <c r="S31" s="78"/>
-      <c r="T31" s="78"/>
-      <c r="U31" s="78"/>
-      <c r="V31" s="78"/>
-      <c r="W31" s="78"/>
-      <c r="X31" s="78"/>
-      <c r="Y31" s="78"/>
-      <c r="Z31" s="78"/>
-      <c r="AA31" s="78"/>
-      <c r="AB31" s="79"/>
-      <c r="AC31" s="60"/>
-      <c r="AD31" s="63"/>
-      <c r="AE31" s="61"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="51"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="51"/>
+      <c r="AA31" s="51"/>
+      <c r="AB31" s="52"/>
+      <c r="AC31" s="44"/>
+      <c r="AD31" s="45"/>
+      <c r="AE31" s="46"/>
       <c r="AF31" s="3"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="78"/>
-      <c r="N32" s="78"/>
-      <c r="O32" s="78"/>
-      <c r="P32" s="78"/>
-      <c r="Q32" s="78"/>
-      <c r="R32" s="78"/>
-      <c r="S32" s="78"/>
-      <c r="T32" s="78"/>
-      <c r="U32" s="78"/>
-      <c r="V32" s="78"/>
-      <c r="W32" s="78"/>
-      <c r="X32" s="78"/>
-      <c r="Y32" s="78"/>
-      <c r="Z32" s="78"/>
-      <c r="AA32" s="78"/>
-      <c r="AB32" s="79"/>
-      <c r="AC32" s="60"/>
-      <c r="AD32" s="63"/>
-      <c r="AE32" s="61"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="51"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="51"/>
+      <c r="Z32" s="51"/>
+      <c r="AA32" s="51"/>
+      <c r="AB32" s="52"/>
+      <c r="AC32" s="44"/>
+      <c r="AD32" s="45"/>
+      <c r="AE32" s="46"/>
       <c r="AF32" s="3"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="3"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="78"/>
-      <c r="M33" s="78"/>
-      <c r="N33" s="78"/>
-      <c r="O33" s="78"/>
-      <c r="P33" s="78"/>
-      <c r="Q33" s="78"/>
-      <c r="R33" s="78"/>
-      <c r="S33" s="78"/>
-      <c r="T33" s="78"/>
-      <c r="U33" s="78"/>
-      <c r="V33" s="78"/>
-      <c r="W33" s="78"/>
-      <c r="X33" s="78"/>
-      <c r="Y33" s="78"/>
-      <c r="Z33" s="78"/>
-      <c r="AA33" s="78"/>
-      <c r="AB33" s="79"/>
-      <c r="AC33" s="60"/>
-      <c r="AD33" s="63"/>
-      <c r="AE33" s="61"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="51"/>
+      <c r="Z33" s="51"/>
+      <c r="AA33" s="51"/>
+      <c r="AB33" s="52"/>
+      <c r="AC33" s="44"/>
+      <c r="AD33" s="45"/>
+      <c r="AE33" s="46"/>
       <c r="AF33" s="3"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -5580,51 +5580,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B8:E9"/>
@@ -5636,6 +5591,51 @@
     <mergeCell ref="AC9:AE12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="W9:Y12"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -5654,8 +5654,8 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="46" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="38" zoomScaleNormal="44" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5680,14 +5680,14 @@
       <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="82" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="83"/>
+      <c r="D2" s="85"/>
       <c r="E2" s="39" t="s">
         <v>57</v>
       </c>
@@ -5696,14 +5696,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="83"/>
+      <c r="D3" s="85"/>
       <c r="E3" s="39" t="s">
         <v>54</v>
       </c>
@@ -5712,14 +5712,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="82" t="s">
+      <c r="B4" s="87"/>
+      <c r="C4" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="83"/>
+      <c r="D4" s="85"/>
       <c r="E4" s="39" t="s">
         <v>6</v>
       </c>
@@ -5728,28 +5728,28 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="82" t="s">
+      <c r="B5" s="87"/>
+      <c r="C5" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="83"/>
+      <c r="D5" s="85"/>
       <c r="E5" s="39" t="s">
         <v>49</v>
       </c>
       <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="82" t="s">
+      <c r="B6" s="87"/>
+      <c r="C6" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="83"/>
+      <c r="D6" s="85"/>
       <c r="E6" s="39" t="s">
         <v>46</v>
       </c>
@@ -5786,10 +5786,10 @@
       <c r="D9" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="86" t="s">
+      <c r="E9" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="87"/>
+      <c r="F9" s="83"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="29">
@@ -5804,10 +5804,10 @@
       <c r="D10" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="84" t="s">
+      <c r="E10" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="85"/>
+      <c r="F10" s="81"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="29">
@@ -5822,10 +5822,10 @@
       <c r="D11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="84" t="s">
+      <c r="E11" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="85"/>
+      <c r="F11" s="81"/>
     </row>
     <row r="12" spans="1:6" ht="33.5" customHeight="1">
       <c r="A12" s="29">
@@ -5840,10 +5840,10 @@
       <c r="D12" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="84" t="s">
+      <c r="E12" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="85"/>
+      <c r="F12" s="81"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="29">
@@ -5858,10 +5858,10 @@
       <c r="D13" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="84" t="s">
+      <c r="E13" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="85"/>
+      <c r="F13" s="81"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="29">
@@ -5876,10 +5876,10 @@
       <c r="D14" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="84" t="s">
+      <c r="E14" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="85"/>
+      <c r="F14" s="81"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="29">
@@ -5894,10 +5894,10 @@
       <c r="D15" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="84" t="s">
+      <c r="E15" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="85"/>
+      <c r="F15" s="81"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="29">
@@ -5912,10 +5912,10 @@
       <c r="D16" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="84" t="s">
+      <c r="E16" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="85"/>
+      <c r="F16" s="81"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="29">
@@ -5930,10 +5930,10 @@
       <c r="D17" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="84" t="s">
+      <c r="E17" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="85"/>
+      <c r="F17" s="81"/>
     </row>
     <row r="18" spans="1:6" ht="33.75" customHeight="1">
       <c r="A18" s="29">
@@ -5948,10 +5948,10 @@
       <c r="D18" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="84" t="s">
+      <c r="E18" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="85"/>
+      <c r="F18" s="81"/>
     </row>
     <row r="19" spans="1:6" ht="33.75" customHeight="1">
       <c r="A19" s="28" t="s">
@@ -6161,6 +6161,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E13:F13"/>
@@ -6171,16 +6181,6 @@
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
